--- a/misc/TUCres.xlsx
+++ b/misc/TUCres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aris\Projects\TUChome\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djari\Documents\Projects\TUChome\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413AF89-87D2-405C-AD71-08ADC41462A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2B1A8-86DF-4AE4-B0B4-39F776B2784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="3" r:id="rId1"/>
@@ -2348,42 +2348,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51C053-75FC-4752-8299-A2C139F86652}">
   <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V67" sqref="V67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="11" customWidth="1"/>
     <col min="23" max="23" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" style="11" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="11"/>
+    <col min="27" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="11">
         <v>2821037223</v>
@@ -2516,7 +2516,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="Z121" s="20"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -12070,16 +12070,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" style="1"/>
-    <col min="11" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -12168,7 +12168,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>

--- a/misc/TUCres.xlsx
+++ b/misc/TUCres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djari\Documents\Projects\TUChome\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aris\Projects\TUChome\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2B1A8-86DF-4AE4-B0B4-39F776B2784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F173D-9820-4277-A011-B9FE815076A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="527">
   <si>
     <t>α/α</t>
   </si>
@@ -992,9 +992,6 @@
   </si>
   <si>
     <t>example2@tuc.gr</t>
-  </si>
-  <si>
-    <t>example3@tuc.gr</t>
   </si>
   <si>
     <t>example4@tuc.gr</t>
@@ -2350,40 +2347,40 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="11" customWidth="1"/>
     <col min="23" max="23" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" style="11" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="11"/>
+    <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2400,70 +2397,70 @@
         <v>8</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>505</v>
-      </c>
       <c r="K1" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>512</v>
-      </c>
       <c r="R1" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="Y1" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>215</v>
@@ -2510,13 +2507,13 @@
         <v>320</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>35</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>217</v>
@@ -2563,13 +2560,13 @@
         <v>321</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2592,37 +2589,15 @@
         <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="11">
-        <v>2021030003</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6940000003</v>
-      </c>
-      <c r="N4" s="11">
-        <v>6950000003</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>527</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="Y4" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2645,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>221</v>
@@ -2666,16 +2641,16 @@
         <v>6950000004</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2698,7 +2673,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>223</v>
@@ -2719,16 +2694,16 @@
         <v>6950000005</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>515</v>
       </c>
       <c r="T6" s="11">
         <v>201503009</v>
@@ -2743,13 +2718,13 @@
         <v>6980000005</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2772,7 +2747,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>225</v>
@@ -2793,16 +2768,16 @@
         <v>6950000006</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2825,7 +2800,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>227</v>
@@ -2846,16 +2821,16 @@
         <v>6950000007</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2878,7 +2853,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>229</v>
@@ -2899,16 +2874,16 @@
         <v>6950000008</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2931,7 +2906,7 @@
         <v>42</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>231</v>
@@ -2952,16 +2927,16 @@
         <v>6950000009</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2984,7 +2959,7 @@
         <v>43</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>233</v>
@@ -3005,16 +2980,16 @@
         <v>6950000010</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3037,7 +3012,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>235</v>
@@ -3058,16 +3033,16 @@
         <v>6950000011</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3090,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>237</v>
@@ -3111,16 +3086,16 @@
         <v>6950000012</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3143,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>239</v>
@@ -3164,16 +3139,16 @@
         <v>6950000013</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3196,7 +3171,7 @@
         <v>47</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>241</v>
@@ -3217,16 +3192,16 @@
         <v>6950000014</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3249,7 +3224,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>243</v>
@@ -3270,16 +3245,16 @@
         <v>6950000015</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3302,7 +3277,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>245</v>
@@ -3323,16 +3298,16 @@
         <v>6950000016</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3355,7 +3330,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>246</v>
@@ -3376,16 +3351,16 @@
         <v>6950000017</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3408,7 +3383,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>247</v>
@@ -3429,16 +3404,16 @@
         <v>6950000018</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3461,7 +3436,7 @@
         <v>52</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>249</v>
@@ -3482,16 +3457,16 @@
         <v>6950000019</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3514,7 +3489,7 @@
         <v>53</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>250</v>
@@ -3535,16 +3510,16 @@
         <v>6950000020</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3567,7 +3542,7 @@
         <v>54</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>247</v>
@@ -3588,16 +3563,16 @@
         <v>6950000021</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3620,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>253</v>
@@ -3641,16 +3616,16 @@
         <v>6950000022</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3673,7 +3648,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>223</v>
@@ -3694,16 +3669,16 @@
         <v>6950000023</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3726,7 +3701,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>219</v>
@@ -3747,16 +3722,16 @@
         <v>6950000024</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3779,7 +3754,7 @@
         <v>58</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>241</v>
@@ -3800,16 +3775,16 @@
         <v>6950000025</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3832,7 +3807,7 @@
         <v>59</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>215</v>
@@ -3853,16 +3828,16 @@
         <v>6950000026</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3885,7 +3860,7 @@
         <v>60</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>258</v>
@@ -3906,16 +3881,16 @@
         <v>6950000027</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3938,7 +3913,7 @@
         <v>61</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>235</v>
@@ -3959,16 +3934,16 @@
         <v>6950000028</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3991,7 +3966,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>223</v>
@@ -4012,16 +3987,16 @@
         <v>6950000029</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4044,7 +4019,7 @@
         <v>63</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>261</v>
@@ -4065,16 +4040,16 @@
         <v>6950000030</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4097,7 +4072,7 @@
         <v>64</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>262</v>
@@ -4118,16 +4093,16 @@
         <v>6950000031</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4150,7 +4125,7 @@
         <v>65</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>263</v>
@@ -4171,16 +4146,16 @@
         <v>6950000032</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4203,7 +4178,7 @@
         <v>66</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>253</v>
@@ -4224,16 +4199,16 @@
         <v>6950000033</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4256,7 +4231,7 @@
         <v>67</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>266</v>
@@ -4277,16 +4252,16 @@
         <v>6950000034</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4309,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>227</v>
@@ -4330,16 +4305,16 @@
         <v>6950000035</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4362,7 +4337,7 @@
         <v>69</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>258</v>
@@ -4383,16 +4358,16 @@
         <v>6950000036</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -4415,7 +4390,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>217</v>
@@ -4436,16 +4411,16 @@
         <v>6950000037</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4468,7 +4443,7 @@
         <v>71</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>268</v>
@@ -4489,16 +4464,16 @@
         <v>6950000038</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -4521,7 +4496,7 @@
         <v>72</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>269</v>
@@ -4542,16 +4517,16 @@
         <v>6950000039</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4574,7 +4549,7 @@
         <v>73</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>247</v>
@@ -4595,16 +4570,16 @@
         <v>6950000040</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4627,7 +4602,7 @@
         <v>74</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>261</v>
@@ -4648,16 +4623,16 @@
         <v>6950000041</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y42" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -4680,7 +4655,7 @@
         <v>75</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>270</v>
@@ -4701,16 +4676,16 @@
         <v>6950000042</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y43" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -4733,7 +4708,7 @@
         <v>76</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>271</v>
@@ -4754,16 +4729,16 @@
         <v>6950000043</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y44" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -4786,7 +4761,7 @@
         <v>77</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>272</v>
@@ -4807,16 +4782,16 @@
         <v>6950000044</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4839,7 +4814,7 @@
         <v>78</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>235</v>
@@ -4860,16 +4835,16 @@
         <v>6950000045</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4892,7 +4867,7 @@
         <v>79</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>229</v>
@@ -4913,16 +4888,16 @@
         <v>6950000046</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4945,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>250</v>
@@ -4966,16 +4941,16 @@
         <v>6950000047</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y48" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4998,7 +4973,7 @@
         <v>81</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>221</v>
@@ -5019,16 +4994,16 @@
         <v>6950000048</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -5051,7 +5026,7 @@
         <v>82</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>245</v>
@@ -5072,16 +5047,16 @@
         <v>6950000049</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -5104,7 +5079,7 @@
         <v>83</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>237</v>
@@ -5125,16 +5100,16 @@
         <v>6950000050</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -5157,7 +5132,7 @@
         <v>84</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>239</v>
@@ -5178,16 +5153,16 @@
         <v>6950000051</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -5210,7 +5185,7 @@
         <v>85</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>243</v>
@@ -5231,16 +5206,16 @@
         <v>6950000052</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y53" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -5263,7 +5238,7 @@
         <v>86</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>273</v>
@@ -5284,16 +5259,16 @@
         <v>6950000053</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y54" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -5316,7 +5291,7 @@
         <v>87</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>231</v>
@@ -5337,16 +5312,16 @@
         <v>6950000054</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y55" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -5369,7 +5344,7 @@
         <v>88</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>247</v>
@@ -5390,16 +5365,16 @@
         <v>6950000055</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -5422,7 +5397,7 @@
         <v>89</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>223</v>
@@ -5443,16 +5418,16 @@
         <v>6950000056</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -5475,7 +5450,7 @@
         <v>90</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>233</v>
@@ -5496,16 +5471,16 @@
         <v>6950000057</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -5528,7 +5503,7 @@
         <v>91</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>245</v>
@@ -5549,16 +5524,16 @@
         <v>6950000058</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y59" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -5581,7 +5556,7 @@
         <v>92</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>237</v>
@@ -5602,16 +5577,16 @@
         <v>6950000059</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y60" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -5634,7 +5609,7 @@
         <v>93</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>235</v>
@@ -5655,10 +5630,10 @@
         <v>6950000060</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q61" s="21"/>
       <c r="R61" s="20"/>
@@ -5669,11 +5644,11 @@
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -5696,7 +5671,7 @@
         <v>94</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>275</v>
@@ -5717,16 +5692,16 @@
         <v>6950000061</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y62" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -5749,7 +5724,7 @@
         <v>95</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>246</v>
@@ -5770,16 +5745,16 @@
         <v>6950000062</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y63" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -5802,7 +5777,7 @@
         <v>96</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>276</v>
@@ -5823,16 +5798,16 @@
         <v>6950000063</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -5855,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>258</v>
@@ -5876,16 +5851,16 @@
         <v>6950000064</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y65" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -5908,7 +5883,7 @@
         <v>98</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>253</v>
@@ -5929,16 +5904,16 @@
         <v>6950000065</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y66" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -5961,7 +5936,7 @@
         <v>99</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>278</v>
@@ -5982,16 +5957,16 @@
         <v>6950000066</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y67" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -6014,7 +5989,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>263</v>
@@ -6035,16 +6010,16 @@
         <v>6950000067</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y68" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -6067,7 +6042,7 @@
         <v>101</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>217</v>
@@ -6088,16 +6063,16 @@
         <v>6950000068</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y69" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -6120,7 +6095,7 @@
         <v>102</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>227</v>
@@ -6141,16 +6116,16 @@
         <v>6950000069</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y70" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -6173,7 +6148,7 @@
         <v>103</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>280</v>
@@ -6194,16 +6169,16 @@
         <v>6950000070</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y71" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -6226,7 +6201,7 @@
         <v>104</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>281</v>
@@ -6247,16 +6222,16 @@
         <v>6950000071</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y72" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -6279,7 +6254,7 @@
         <v>105</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>229</v>
@@ -6300,16 +6275,16 @@
         <v>6950000072</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -6332,7 +6307,7 @@
         <v>106</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>250</v>
@@ -6353,16 +6328,16 @@
         <v>6950000073</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y74" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -6385,7 +6360,7 @@
         <v>107</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>235</v>
@@ -6406,16 +6381,16 @@
         <v>6950000074</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y75" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -6438,7 +6413,7 @@
         <v>108</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>221</v>
@@ -6459,16 +6434,16 @@
         <v>6950000075</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P76" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y76" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -6491,7 +6466,7 @@
         <v>109</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>219</v>
@@ -6512,16 +6487,16 @@
         <v>6950000076</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y77" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -6544,7 +6519,7 @@
         <v>110</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>269</v>
@@ -6565,16 +6540,16 @@
         <v>6950000077</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y78" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -6597,7 +6572,7 @@
         <v>111</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>271</v>
@@ -6618,16 +6593,16 @@
         <v>6950000078</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y79" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -6650,7 +6625,7 @@
         <v>112</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>285</v>
@@ -6671,16 +6646,16 @@
         <v>6950000079</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y80" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -6703,7 +6678,7 @@
         <v>113</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>223</v>
@@ -6724,16 +6699,16 @@
         <v>6950000080</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y81" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -6756,7 +6731,7 @@
         <v>114</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>287</v>
@@ -6777,16 +6752,16 @@
         <v>6950000081</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P82" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -6809,7 +6784,7 @@
         <v>115</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>288</v>
@@ -6830,16 +6805,16 @@
         <v>6950000082</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P83" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -6862,7 +6837,7 @@
         <v>116</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>235</v>
@@ -6883,16 +6858,16 @@
         <v>6950000083</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P84" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -6915,7 +6890,7 @@
         <v>117</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>225</v>
@@ -6936,16 +6911,16 @@
         <v>6950000084</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P85" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -6968,7 +6943,7 @@
         <v>118</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>289</v>
@@ -6989,16 +6964,16 @@
         <v>6950000085</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y86" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -7021,7 +6996,7 @@
         <v>119</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>262</v>
@@ -7042,16 +7017,16 @@
         <v>6950000086</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P87" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y87" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -7074,7 +7049,7 @@
         <v>120</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>290</v>
@@ -7095,16 +7070,16 @@
         <v>6950000087</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P88" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y88" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -7127,7 +7102,7 @@
         <v>121</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>247</v>
@@ -7148,16 +7123,16 @@
         <v>6950000088</v>
       </c>
       <c r="O89" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P89" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y89" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -7180,7 +7155,7 @@
         <v>122</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>223</v>
@@ -7201,16 +7176,16 @@
         <v>6950000089</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -7233,7 +7208,7 @@
         <v>123</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>293</v>
@@ -7254,16 +7229,16 @@
         <v>6950000090</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -7286,7 +7261,7 @@
         <v>124</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>227</v>
@@ -7307,16 +7282,16 @@
         <v>6950000091</v>
       </c>
       <c r="O92" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P92" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -7339,7 +7314,7 @@
         <v>125</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>294</v>
@@ -7360,16 +7335,16 @@
         <v>6950000092</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P93" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y93" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -7392,7 +7367,7 @@
         <v>126</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>253</v>
@@ -7413,16 +7388,16 @@
         <v>6950000093</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y94" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -7445,7 +7420,7 @@
         <v>127</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>276</v>
@@ -7466,16 +7441,16 @@
         <v>6950000094</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P95" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y95" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -7498,7 +7473,7 @@
         <v>128</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>262</v>
@@ -7519,16 +7494,16 @@
         <v>6950000095</v>
       </c>
       <c r="O96" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y96" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -7551,7 +7526,7 @@
         <v>129</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I97" s="13" t="s">
         <v>273</v>
@@ -7572,16 +7547,16 @@
         <v>6950000096</v>
       </c>
       <c r="O97" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P97" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y97" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -7604,7 +7579,7 @@
         <v>130</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I98" s="13" t="s">
         <v>258</v>
@@ -7625,16 +7600,16 @@
         <v>6950000097</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P98" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y98" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -7657,7 +7632,7 @@
         <v>131</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I99" s="13" t="s">
         <v>246</v>
@@ -7678,16 +7653,16 @@
         <v>6950000098</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y99" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -7710,7 +7685,7 @@
         <v>132</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I100" s="13" t="s">
         <v>269</v>
@@ -7731,16 +7706,16 @@
         <v>6950000099</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y100" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -7763,7 +7738,7 @@
         <v>133</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I101" s="13" t="s">
         <v>253</v>
@@ -7784,16 +7759,16 @@
         <v>6950000100</v>
       </c>
       <c r="O101" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P101" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y101" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -7816,7 +7791,7 @@
         <v>134</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I102" s="13" t="s">
         <v>272</v>
@@ -7837,16 +7812,16 @@
         <v>6950000101</v>
       </c>
       <c r="O102" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P102" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y102" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -7869,7 +7844,7 @@
         <v>135</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I103" s="13" t="s">
         <v>261</v>
@@ -7890,16 +7865,16 @@
         <v>6950000102</v>
       </c>
       <c r="O103" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P103" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y103" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -7922,7 +7897,7 @@
         <v>136</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I104" s="13" t="s">
         <v>229</v>
@@ -7943,16 +7918,16 @@
         <v>6950000103</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y104" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -7975,7 +7950,7 @@
         <v>137</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I105" s="13" t="s">
         <v>271</v>
@@ -7996,16 +7971,16 @@
         <v>6950000104</v>
       </c>
       <c r="O105" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y105" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -8028,7 +8003,7 @@
         <v>138</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I106" s="13" t="s">
         <v>217</v>
@@ -8049,16 +8024,16 @@
         <v>6950000105</v>
       </c>
       <c r="O106" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y106" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -8081,7 +8056,7 @@
         <v>139</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I107" s="13" t="s">
         <v>289</v>
@@ -8102,16 +8077,16 @@
         <v>6950000106</v>
       </c>
       <c r="O107" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P107" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y107" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -8134,7 +8109,7 @@
         <v>140</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I108" s="13" t="s">
         <v>253</v>
@@ -8155,16 +8130,16 @@
         <v>6950000107</v>
       </c>
       <c r="O108" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y108" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -8187,7 +8162,7 @@
         <v>141</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I109" s="13" t="s">
         <v>276</v>
@@ -8208,16 +8183,16 @@
         <v>6950000108</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y109" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -8240,7 +8215,7 @@
         <v>142</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I110" s="13" t="s">
         <v>297</v>
@@ -8261,16 +8236,16 @@
         <v>6950000109</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y110" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -8293,7 +8268,7 @@
         <v>143</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>227</v>
@@ -8314,16 +8289,16 @@
         <v>6950000110</v>
       </c>
       <c r="O111" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y111" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -8346,7 +8321,7 @@
         <v>144</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I112" s="13" t="s">
         <v>293</v>
@@ -8367,16 +8342,16 @@
         <v>6950000111</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y112" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -8399,7 +8374,7 @@
         <v>145</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I113" s="13" t="s">
         <v>221</v>
@@ -8420,16 +8395,16 @@
         <v>6950000112</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y113" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -8452,7 +8427,7 @@
         <v>146</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I114" s="13" t="s">
         <v>247</v>
@@ -8473,16 +8448,16 @@
         <v>6950000113</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y114" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -8505,7 +8480,7 @@
         <v>147</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I115" s="13" t="s">
         <v>266</v>
@@ -8526,16 +8501,16 @@
         <v>6950000114</v>
       </c>
       <c r="O115" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y115" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -8558,7 +8533,7 @@
         <v>148</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I116" s="13" t="s">
         <v>269</v>
@@ -8579,16 +8554,16 @@
         <v>6950000115</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y116" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -8611,7 +8586,7 @@
         <v>149</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>235</v>
@@ -8632,16 +8607,16 @@
         <v>6950000116</v>
       </c>
       <c r="O117" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y117" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -8664,7 +8639,7 @@
         <v>150</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I118" s="13" t="s">
         <v>299</v>
@@ -8685,16 +8660,16 @@
         <v>6950000117</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y118" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -8717,7 +8692,7 @@
         <v>151</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I119" s="13" t="s">
         <v>261</v>
@@ -8738,16 +8713,16 @@
         <v>6950000118</v>
       </c>
       <c r="O119" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y119" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -8770,7 +8745,7 @@
         <v>152</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I120" s="13" t="s">
         <v>223</v>
@@ -8791,16 +8766,16 @@
         <v>6950000119</v>
       </c>
       <c r="O120" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y120" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -8823,7 +8798,7 @@
         <v>153</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I121" s="22" t="s">
         <v>287</v>
@@ -8844,10 +8819,10 @@
         <v>6950000120</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P121" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q121" s="21"/>
       <c r="R121" s="20"/>
@@ -8858,11 +8833,11 @@
       <c r="W121" s="20"/>
       <c r="X121" s="20"/>
       <c r="Y121" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z121" s="20"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -8885,7 +8860,7 @@
         <v>154</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I122" s="13" t="s">
         <v>241</v>
@@ -8906,16 +8881,16 @@
         <v>6950000121</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y122" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -8938,7 +8913,7 @@
         <v>155</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>300</v>
@@ -8959,16 +8934,16 @@
         <v>6950000122</v>
       </c>
       <c r="O123" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y123" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -8991,7 +8966,7 @@
         <v>156</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I124" s="13" t="s">
         <v>301</v>
@@ -9012,16 +8987,16 @@
         <v>6950000123</v>
       </c>
       <c r="O124" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y124" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -9044,7 +9019,7 @@
         <v>157</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I125" s="13" t="s">
         <v>245</v>
@@ -9065,16 +9040,16 @@
         <v>6950000124</v>
       </c>
       <c r="O125" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y125" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -9097,7 +9072,7 @@
         <v>158</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I126" s="13" t="s">
         <v>239</v>
@@ -9118,16 +9093,16 @@
         <v>6950000125</v>
       </c>
       <c r="O126" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y126" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -9150,7 +9125,7 @@
         <v>159</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I127" s="13" t="s">
         <v>225</v>
@@ -9171,16 +9146,16 @@
         <v>6950000126</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y127" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -9203,7 +9178,7 @@
         <v>160</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I128" s="13" t="s">
         <v>263</v>
@@ -9224,16 +9199,16 @@
         <v>6950000127</v>
       </c>
       <c r="O128" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y128" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -9256,7 +9231,7 @@
         <v>161</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I129" s="13" t="s">
         <v>272</v>
@@ -9277,16 +9252,16 @@
         <v>6950000128</v>
       </c>
       <c r="O129" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y129" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -9309,7 +9284,7 @@
         <v>162</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I130" s="13" t="s">
         <v>223</v>
@@ -9330,16 +9305,16 @@
         <v>6950000129</v>
       </c>
       <c r="O130" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y130" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -9362,7 +9337,7 @@
         <v>163</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>247</v>
@@ -9383,16 +9358,16 @@
         <v>6950000130</v>
       </c>
       <c r="O131" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y131" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -9415,7 +9390,7 @@
         <v>164</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>302</v>
@@ -9436,16 +9411,16 @@
         <v>6950000131</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y132" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -9468,7 +9443,7 @@
         <v>165</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>253</v>
@@ -9489,16 +9464,16 @@
         <v>6950000132</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y133" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -9521,7 +9496,7 @@
         <v>166</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I134" s="13" t="s">
         <v>227</v>
@@ -9542,16 +9517,16 @@
         <v>6950000133</v>
       </c>
       <c r="O134" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y134" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -9574,7 +9549,7 @@
         <v>167</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>293</v>
@@ -9595,16 +9570,16 @@
         <v>6950000134</v>
       </c>
       <c r="O135" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y135" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -9627,7 +9602,7 @@
         <v>168</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I136" s="13" t="s">
         <v>273</v>
@@ -9648,16 +9623,16 @@
         <v>6950000135</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y136" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -9680,7 +9655,7 @@
         <v>169</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I137" s="13" t="s">
         <v>246</v>
@@ -9701,16 +9676,16 @@
         <v>6950000136</v>
       </c>
       <c r="O137" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y137" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -9733,7 +9708,7 @@
         <v>170</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I138" s="13" t="s">
         <v>297</v>
@@ -9754,16 +9729,16 @@
         <v>6950000137</v>
       </c>
       <c r="O138" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y138" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -9786,7 +9761,7 @@
         <v>171</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I139" s="13" t="s">
         <v>243</v>
@@ -9807,16 +9782,16 @@
         <v>6950000138</v>
       </c>
       <c r="O139" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y139" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -9839,7 +9814,7 @@
         <v>172</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I140" s="13" t="s">
         <v>269</v>
@@ -9860,16 +9835,16 @@
         <v>6950000139</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y140" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -9892,7 +9867,7 @@
         <v>173</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>249</v>
@@ -9913,16 +9888,16 @@
         <v>6950000140</v>
       </c>
       <c r="O141" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P141" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y141" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -9945,7 +9920,7 @@
         <v>174</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I142" s="13" t="s">
         <v>223</v>
@@ -9966,16 +9941,16 @@
         <v>6950000141</v>
       </c>
       <c r="O142" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P142" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y142" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -9998,7 +9973,7 @@
         <v>175</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I143" s="13" t="s">
         <v>247</v>
@@ -10019,16 +9994,16 @@
         <v>6950000142</v>
       </c>
       <c r="O143" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y143" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -10051,7 +10026,7 @@
         <v>176</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I144" s="13" t="s">
         <v>273</v>
@@ -10072,16 +10047,16 @@
         <v>6950000143</v>
       </c>
       <c r="O144" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y144" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -10104,7 +10079,7 @@
         <v>177</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I145" s="13" t="s">
         <v>301</v>
@@ -10125,16 +10100,16 @@
         <v>6950000144</v>
       </c>
       <c r="O145" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y145" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -10157,7 +10132,7 @@
         <v>178</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>229</v>
@@ -10178,16 +10153,16 @@
         <v>6950000145</v>
       </c>
       <c r="O146" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P146" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y146" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -10210,7 +10185,7 @@
         <v>179</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>271</v>
@@ -10231,16 +10206,16 @@
         <v>6950000146</v>
       </c>
       <c r="O147" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P147" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y147" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -10263,7 +10238,7 @@
         <v>180</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I148" s="13" t="s">
         <v>304</v>
@@ -10284,16 +10259,16 @@
         <v>6950000147</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P148" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y148" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -10316,7 +10291,7 @@
         <v>181</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I149" s="13" t="s">
         <v>280</v>
@@ -10337,16 +10312,16 @@
         <v>6950000148</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y149" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -10369,7 +10344,7 @@
         <v>182</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I150" s="13" t="s">
         <v>285</v>
@@ -10390,16 +10365,16 @@
         <v>6950000149</v>
       </c>
       <c r="O150" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P150" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y150" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -10422,7 +10397,7 @@
         <v>183</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I151" s="13" t="s">
         <v>306</v>
@@ -10443,16 +10418,16 @@
         <v>6950000150</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P151" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y151" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -10475,7 +10450,7 @@
         <v>184</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>245</v>
@@ -10496,16 +10471,16 @@
         <v>6950000151</v>
       </c>
       <c r="O152" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P152" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y152" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -10528,7 +10503,7 @@
         <v>185</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I153" s="13" t="s">
         <v>261</v>
@@ -10549,16 +10524,16 @@
         <v>6950000152</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P153" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y153" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -10581,7 +10556,7 @@
         <v>186</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I154" s="13" t="s">
         <v>272</v>
@@ -10602,16 +10577,16 @@
         <v>6950000153</v>
       </c>
       <c r="O154" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P154" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y154" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -10634,7 +10609,7 @@
         <v>187</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I155" s="13" t="s">
         <v>246</v>
@@ -10655,16 +10630,16 @@
         <v>6950000154</v>
       </c>
       <c r="O155" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P155" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y155" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -10687,7 +10662,7 @@
         <v>188</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I156" s="13" t="s">
         <v>217</v>
@@ -10708,16 +10683,16 @@
         <v>6950000155</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P156" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y156" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -10740,7 +10715,7 @@
         <v>189</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I157" s="13" t="s">
         <v>307</v>
@@ -10761,16 +10736,16 @@
         <v>6950000156</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P157" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y157" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -10793,7 +10768,7 @@
         <v>190</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I158" s="13" t="s">
         <v>227</v>
@@ -10814,16 +10789,16 @@
         <v>6950000157</v>
       </c>
       <c r="O158" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P158" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y158" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -10846,7 +10821,7 @@
         <v>191</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I159" s="13" t="s">
         <v>235</v>
@@ -10867,16 +10842,16 @@
         <v>6950000158</v>
       </c>
       <c r="O159" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P159" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y159" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -10899,7 +10874,7 @@
         <v>192</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I160" s="13" t="s">
         <v>243</v>
@@ -10920,16 +10895,16 @@
         <v>6950000159</v>
       </c>
       <c r="O160" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P160" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y160" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -10952,7 +10927,7 @@
         <v>193</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>215</v>
@@ -10973,16 +10948,16 @@
         <v>6950000160</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P161" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y161" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -11005,7 +10980,7 @@
         <v>194</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>293</v>
@@ -11026,16 +11001,16 @@
         <v>6950000161</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P162" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y162" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -11058,7 +11033,7 @@
         <v>195</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I163" s="13" t="s">
         <v>300</v>
@@ -11079,16 +11054,16 @@
         <v>6950000162</v>
       </c>
       <c r="O163" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P163" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y163" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -11111,7 +11086,7 @@
         <v>196</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I164" s="13" t="s">
         <v>310</v>
@@ -11132,16 +11107,16 @@
         <v>6950000163</v>
       </c>
       <c r="O164" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P164" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y164" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -11164,7 +11139,7 @@
         <v>197</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I165" s="13" t="s">
         <v>285</v>
@@ -11185,16 +11160,16 @@
         <v>6950000164</v>
       </c>
       <c r="O165" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P165" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y165" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -11217,7 +11192,7 @@
         <v>198</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I166" s="13" t="s">
         <v>311</v>
@@ -11238,16 +11213,16 @@
         <v>6950000165</v>
       </c>
       <c r="O166" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P166" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y166" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -11270,7 +11245,7 @@
         <v>199</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I167" s="13" t="s">
         <v>235</v>
@@ -11291,16 +11266,16 @@
         <v>6950000166</v>
       </c>
       <c r="O167" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P167" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y167" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -11323,7 +11298,7 @@
         <v>200</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I168" s="13" t="s">
         <v>223</v>
@@ -11344,16 +11319,16 @@
         <v>6950000167</v>
       </c>
       <c r="O168" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P168" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y168" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -11376,7 +11351,7 @@
         <v>201</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I169" s="13" t="s">
         <v>246</v>
@@ -11397,16 +11372,16 @@
         <v>6950000168</v>
       </c>
       <c r="O169" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P169" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y169" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -11429,7 +11404,7 @@
         <v>202</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I170" s="13" t="s">
         <v>293</v>
@@ -11450,16 +11425,16 @@
         <v>6950000169</v>
       </c>
       <c r="O170" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P170" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y170" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -11482,7 +11457,7 @@
         <v>203</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I171" s="13" t="s">
         <v>219</v>
@@ -11503,16 +11478,16 @@
         <v>6950000170</v>
       </c>
       <c r="O171" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P171" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y171" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -11535,7 +11510,7 @@
         <v>204</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I172" s="13" t="s">
         <v>269</v>
@@ -11556,16 +11531,16 @@
         <v>6950000171</v>
       </c>
       <c r="O172" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P172" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y172" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -11588,7 +11563,7 @@
         <v>205</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I173" s="13" t="s">
         <v>313</v>
@@ -11609,16 +11584,16 @@
         <v>6950000172</v>
       </c>
       <c r="O173" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P173" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y173" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -11641,7 +11616,7 @@
         <v>206</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I174" s="13" t="s">
         <v>310</v>
@@ -11662,16 +11637,16 @@
         <v>6950000173</v>
       </c>
       <c r="O174" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P174" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y174" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -11694,7 +11669,7 @@
         <v>207</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I175" s="13" t="s">
         <v>219</v>
@@ -11715,16 +11690,16 @@
         <v>6950000174</v>
       </c>
       <c r="O175" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P175" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y175" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -11747,7 +11722,7 @@
         <v>208</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I176" s="13" t="s">
         <v>215</v>
@@ -11768,16 +11743,16 @@
         <v>6950000175</v>
       </c>
       <c r="O176" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P176" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y176" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -11800,7 +11775,7 @@
         <v>209</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I177" s="13" t="s">
         <v>293</v>
@@ -11821,16 +11796,16 @@
         <v>6950000176</v>
       </c>
       <c r="O177" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P177" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y177" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -11853,7 +11828,7 @@
         <v>210</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I178" s="13" t="s">
         <v>302</v>
@@ -11874,16 +11849,16 @@
         <v>6950000177</v>
       </c>
       <c r="O178" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P178" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y178" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -11906,7 +11881,7 @@
         <v>211</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I179" s="13" t="s">
         <v>229</v>
@@ -11927,16 +11902,16 @@
         <v>6950000178</v>
       </c>
       <c r="O179" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P179" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y179" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -11959,7 +11934,7 @@
         <v>212</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I180" s="13" t="s">
         <v>239</v>
@@ -11980,16 +11955,16 @@
         <v>6950000179</v>
       </c>
       <c r="O180" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P180" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y180" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -12012,7 +11987,7 @@
         <v>213</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I181" s="22" t="s">
         <v>280</v>
@@ -12033,10 +12008,10 @@
         <v>6950000180</v>
       </c>
       <c r="O181" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P181" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q181" s="21"/>
       <c r="R181" s="20"/>
@@ -12047,7 +12022,7 @@
       <c r="W181" s="20"/>
       <c r="X181" s="20"/>
       <c r="Y181" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z181" s="20"/>
     </row>
@@ -12070,16 +12045,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12150,7 +12125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -12168,7 +12143,7 @@
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -12239,7 +12214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
